--- a/project/DB/food-footprints.xlsx
+++ b/project/DB/food-footprints.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zebsu\OneDrive\University\DurHack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zebsu\OneDrive\University\DurHack\DurHack_Repository\something-green\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Entity</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Beef (beef herd)</t>
   </si>
   <si>
-    <t>Beef (dairy herd)</t>
-  </si>
-  <si>
-    <t>Beet Sugar</t>
-  </si>
-  <si>
     <t>Berries &amp; Grapes</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t>Milk</t>
-  </si>
-  <si>
-    <t>Nuts</t>
   </si>
   <si>
     <t>Oatmeal</t>
@@ -960,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,16 +973,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1094,19 +1085,19 @@
         <v>2010</v>
       </c>
       <c r="D6">
-        <v>33.299999999999997</v>
+        <v>1.53</v>
       </c>
       <c r="E6">
-        <v>43.24</v>
+        <v>2.41</v>
       </c>
       <c r="F6">
-        <v>43.24</v>
+        <v>2.41</v>
       </c>
       <c r="G6">
-        <v>119805.2</v>
+        <v>21162.1</v>
       </c>
       <c r="H6">
-        <v>365.29</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1117,19 +1108,19 @@
         <v>2010</v>
       </c>
       <c r="D7">
-        <v>1.81</v>
+        <v>0.51</v>
       </c>
       <c r="E7">
-        <v>1.83</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F7">
-        <v>1.83</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G7">
-        <v>9493.2999999999993</v>
+        <v>8455.1</v>
       </c>
       <c r="H7">
-        <v>5.41</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1140,19 +1131,19 @@
         <v>2010</v>
       </c>
       <c r="D8">
-        <v>1.53</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="F8">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="G8">
-        <v>21162.1</v>
+        <v>16438.599999999999</v>
       </c>
       <c r="H8">
-        <v>6.12</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1163,19 +1154,19 @@
         <v>2010</v>
       </c>
       <c r="D9">
-        <v>0.51</v>
+        <v>1.32</v>
       </c>
       <c r="E9">
-        <v>0.55000000000000004</v>
+        <v>1.81</v>
       </c>
       <c r="F9">
-        <v>0.55000000000000004</v>
+        <v>1.81</v>
       </c>
       <c r="G9">
-        <v>8455.1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>5.01</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1186,19 +1177,19 @@
         <v>2010</v>
       </c>
       <c r="D10">
-        <v>3.2</v>
+        <v>23.88</v>
       </c>
       <c r="E10">
-        <v>2.04</v>
+        <v>87.79</v>
       </c>
       <c r="F10">
-        <v>2.04</v>
+        <v>87.79</v>
       </c>
       <c r="G10">
-        <v>16438.599999999999</v>
+        <v>180850.6</v>
       </c>
       <c r="H10">
-        <v>16.920000000000002</v>
+        <v>98.37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1209,19 +1200,19 @@
         <v>2010</v>
       </c>
       <c r="D11">
-        <v>1.32</v>
+        <v>0.39</v>
       </c>
       <c r="E11">
-        <v>1.81</v>
+        <v>0.86</v>
       </c>
       <c r="F11">
-        <v>1.81</v>
+        <v>0.86</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4662.7</v>
       </c>
       <c r="H11">
-        <v>0.69</v>
+        <v>2.2400000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1232,19 +1223,19 @@
         <v>2010</v>
       </c>
       <c r="D12">
-        <v>23.88</v>
+        <v>28.53</v>
       </c>
       <c r="E12">
-        <v>87.79</v>
+        <v>21.62</v>
       </c>
       <c r="F12">
-        <v>87.79</v>
+        <v>21.62</v>
       </c>
       <c r="G12">
-        <v>180850.6</v>
+        <v>337</v>
       </c>
       <c r="H12">
-        <v>98.37</v>
+        <v>110.52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1255,19 +1246,19 @@
         <v>2010</v>
       </c>
       <c r="D13">
-        <v>0.39</v>
+        <v>46.65</v>
       </c>
       <c r="E13">
-        <v>0.86</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="F13">
-        <v>0.86</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="G13">
-        <v>4662.7</v>
+        <v>2879.2</v>
       </c>
       <c r="H13">
-        <v>2.2400000000000002</v>
+        <v>87.08</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1278,19 +1269,19 @@
         <v>2010</v>
       </c>
       <c r="D14">
-        <v>28.53</v>
+        <v>4.67</v>
       </c>
       <c r="E14">
-        <v>21.62</v>
+        <v>6.27</v>
       </c>
       <c r="F14">
-        <v>21.62</v>
+        <v>6.27</v>
       </c>
       <c r="G14">
-        <v>337</v>
+        <v>17982.7</v>
       </c>
       <c r="H14">
-        <v>110.52</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1301,19 +1292,19 @@
         <v>2010</v>
       </c>
       <c r="D15">
-        <v>46.65</v>
+        <v>13.63</v>
       </c>
       <c r="E15">
-        <v>68.959999999999994</v>
+        <v>8.41</v>
       </c>
       <c r="F15">
-        <v>68.959999999999994</v>
+        <v>8.41</v>
       </c>
       <c r="G15">
-        <v>2879.2</v>
+        <v>41572.199999999997</v>
       </c>
       <c r="H15">
-        <v>87.08</v>
+        <v>235.12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1324,19 +1315,19 @@
         <v>2010</v>
       </c>
       <c r="D16">
-        <v>4.67</v>
+        <v>3.23</v>
       </c>
       <c r="E16">
-        <v>6.27</v>
+        <v>9.11</v>
       </c>
       <c r="F16">
-        <v>6.27</v>
+        <v>9.11</v>
       </c>
       <c r="G16">
-        <v>17982.7</v>
+        <v>61797.9</v>
       </c>
       <c r="H16">
-        <v>21.76</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1347,19 +1338,19 @@
         <v>2010</v>
       </c>
       <c r="D17">
-        <v>13.63</v>
+        <v>39.72</v>
       </c>
       <c r="E17">
-        <v>8.41</v>
+        <v>369.81</v>
       </c>
       <c r="F17">
-        <v>8.41</v>
+        <v>369.81</v>
       </c>
       <c r="G17">
-        <v>41572.199999999997</v>
+        <v>141925</v>
       </c>
       <c r="H17">
-        <v>235.12</v>
+        <v>97.13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1370,19 +1361,19 @@
         <v>2010</v>
       </c>
       <c r="D18">
-        <v>3.23</v>
+        <v>1.7</v>
       </c>
       <c r="E18">
-        <v>9.11</v>
+        <v>2.94</v>
       </c>
       <c r="F18">
-        <v>9.11</v>
+        <v>2.94</v>
       </c>
       <c r="G18">
-        <v>61797.9</v>
+        <v>10863.3</v>
       </c>
       <c r="H18">
-        <v>14.14</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1393,19 +1384,19 @@
         <v>2010</v>
       </c>
       <c r="D19">
-        <v>39.72</v>
+        <v>3.15</v>
       </c>
       <c r="E19">
-        <v>369.81</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F19">
-        <v>369.81</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="G19">
-        <v>141925</v>
+        <v>19786.3</v>
       </c>
       <c r="H19">
-        <v>97.13</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1416,19 +1407,19 @@
         <v>2010</v>
       </c>
       <c r="D20">
-        <v>1.7</v>
+        <v>2.48</v>
       </c>
       <c r="E20">
-        <v>2.94</v>
+        <v>7.6</v>
       </c>
       <c r="F20">
-        <v>2.94</v>
+        <v>7.6</v>
       </c>
       <c r="G20">
-        <v>10863.3</v>
+        <v>18786.2</v>
       </c>
       <c r="H20">
-        <v>4.03</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1439,19 +1430,19 @@
         <v>2010</v>
       </c>
       <c r="D21">
-        <v>3.15</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
-        <v>8.9499999999999993</v>
+        <v>0.39</v>
       </c>
       <c r="F21">
-        <v>8.9499999999999993</v>
+        <v>0.39</v>
       </c>
       <c r="G21">
-        <v>19786.3</v>
+        <v>932</v>
       </c>
       <c r="H21">
-        <v>10.65</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1462,19 +1453,19 @@
         <v>2010</v>
       </c>
       <c r="D22">
-        <v>0.43</v>
+        <v>1.05</v>
       </c>
       <c r="E22">
-        <v>12.96</v>
+        <v>0.89</v>
       </c>
       <c r="F22">
-        <v>12.96</v>
+        <v>0.89</v>
       </c>
       <c r="G22">
-        <v>229889.8</v>
+        <v>9533.1</v>
       </c>
       <c r="H22">
-        <v>19.149999999999999</v>
+        <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1485,19 +1476,19 @@
         <v>2010</v>
       </c>
       <c r="D23">
-        <v>2.48</v>
+        <v>1.79</v>
       </c>
       <c r="E23">
-        <v>7.6</v>
+        <v>15.57</v>
       </c>
       <c r="F23">
-        <v>7.6</v>
+        <v>15.57</v>
       </c>
       <c r="G23">
-        <v>18786.2</v>
+        <v>22477.4</v>
       </c>
       <c r="H23">
-        <v>11.23</v>
+        <v>17.079999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1508,19 +1499,19 @@
         <v>2010</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="E24">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F24">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="G24">
-        <v>932</v>
+        <v>4911.3999999999996</v>
       </c>
       <c r="H24">
-        <v>3.24</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1531,19 +1522,19 @@
         <v>2010</v>
       </c>
       <c r="D25">
-        <v>1.05</v>
+        <v>0.98</v>
       </c>
       <c r="E25">
-        <v>0.89</v>
+        <v>7.46</v>
       </c>
       <c r="F25">
-        <v>0.89</v>
+        <v>7.46</v>
       </c>
       <c r="G25">
-        <v>9533.1</v>
+        <v>27948.2</v>
       </c>
       <c r="H25">
-        <v>2.4300000000000002</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1554,19 +1545,19 @@
         <v>2010</v>
       </c>
       <c r="D26">
-        <v>1.79</v>
+        <v>12.31</v>
       </c>
       <c r="E26">
-        <v>15.57</v>
+        <v>17.36</v>
       </c>
       <c r="F26">
-        <v>15.57</v>
+        <v>17.36</v>
       </c>
       <c r="G26">
-        <v>22477.4</v>
+        <v>66867.399999999994</v>
       </c>
       <c r="H26">
-        <v>17.079999999999998</v>
+        <v>76.38</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1577,19 +1568,19 @@
         <v>2010</v>
       </c>
       <c r="D27">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E27">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="F27">
-        <v>0.38</v>
+        <v>0.88</v>
       </c>
       <c r="G27">
-        <v>4911.3999999999996</v>
+        <v>2754.2</v>
       </c>
       <c r="H27">
-        <v>2.27</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1600,19 +1591,19 @@
         <v>2010</v>
       </c>
       <c r="D28">
-        <v>0.98</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="E28">
-        <v>7.46</v>
+        <v>12.22</v>
       </c>
       <c r="F28">
-        <v>7.46</v>
+        <v>12.22</v>
       </c>
       <c r="G28">
-        <v>27948.2</v>
+        <v>14177.9</v>
       </c>
       <c r="H28">
-        <v>7.52</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1623,19 +1614,19 @@
         <v>2010</v>
       </c>
       <c r="D29">
-        <v>12.31</v>
+        <v>26.87</v>
       </c>
       <c r="E29">
-        <v>17.36</v>
+        <v>2.97</v>
       </c>
       <c r="F29">
-        <v>17.36</v>
+        <v>2.97</v>
       </c>
       <c r="G29">
-        <v>66867.399999999994</v>
+        <v>127259</v>
       </c>
       <c r="H29">
-        <v>76.38</v>
+        <v>227.22</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1646,19 +1637,19 @@
         <v>2010</v>
       </c>
       <c r="D30">
-        <v>0.46</v>
+        <v>4.45</v>
       </c>
       <c r="E30">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="F30">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="G30">
-        <v>2754.2</v>
+        <v>49576.3</v>
       </c>
       <c r="H30">
-        <v>3.48</v>
+        <v>35.07</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1669,19 +1660,19 @@
         <v>2010</v>
       </c>
       <c r="D31">
-        <v>9.8699999999999992</v>
+        <v>0.43</v>
       </c>
       <c r="E31">
-        <v>12.22</v>
+        <v>0.33</v>
       </c>
       <c r="F31">
-        <v>12.22</v>
+        <v>0.33</v>
       </c>
       <c r="G31">
-        <v>14177.9</v>
+        <v>929.2</v>
       </c>
       <c r="H31">
-        <v>48.7</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -1692,19 +1683,19 @@
         <v>2010</v>
       </c>
       <c r="D32">
-        <v>26.87</v>
+        <v>0.98</v>
       </c>
       <c r="E32">
-        <v>2.97</v>
+        <v>0.66</v>
       </c>
       <c r="F32">
-        <v>2.97</v>
+        <v>0.66</v>
       </c>
       <c r="G32">
-        <v>127259</v>
+        <v>955.6</v>
       </c>
       <c r="H32">
-        <v>227.22</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
@@ -1715,19 +1706,19 @@
         <v>2010</v>
       </c>
       <c r="D33">
-        <v>4.45</v>
+        <v>3.16</v>
       </c>
       <c r="E33">
-        <v>2.8</v>
+        <v>3.52</v>
       </c>
       <c r="F33">
-        <v>2.8</v>
+        <v>3.52</v>
       </c>
       <c r="G33">
-        <v>49576.3</v>
+        <v>5113.2</v>
       </c>
       <c r="H33">
-        <v>35.07</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
@@ -1738,19 +1729,19 @@
         <v>2010</v>
       </c>
       <c r="D34">
-        <v>0.43</v>
+        <v>2.09</v>
       </c>
       <c r="E34">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="G34">
-        <v>929.2</v>
+        <v>5335.7</v>
       </c>
       <c r="H34">
-        <v>1.61</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -1761,19 +1752,19 @@
         <v>2010</v>
       </c>
       <c r="D35">
-        <v>0.98</v>
+        <v>1.57</v>
       </c>
       <c r="E35">
-        <v>0.66</v>
+        <v>3.85</v>
       </c>
       <c r="F35">
-        <v>0.66</v>
+        <v>3.85</v>
       </c>
       <c r="G35">
-        <v>955.6</v>
+        <v>33385.599999999999</v>
       </c>
       <c r="H35">
-        <v>1.06</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -1784,87 +1775,18 @@
         <v>2010</v>
       </c>
       <c r="D36">
-        <v>3.16</v>
+        <v>1.79</v>
       </c>
       <c r="E36">
-        <v>3.52</v>
+        <v>1.78</v>
       </c>
       <c r="F36">
-        <v>3.52</v>
+        <v>1.78</v>
       </c>
       <c r="G36">
-        <v>5113.2</v>
+        <v>1149.3</v>
       </c>
       <c r="H36">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>2010</v>
-      </c>
-      <c r="D37">
-        <v>2.09</v>
-      </c>
-      <c r="E37">
-        <v>0.8</v>
-      </c>
-      <c r="F37">
-        <v>0.8</v>
-      </c>
-      <c r="G37">
-        <v>5335.7</v>
-      </c>
-      <c r="H37">
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>2010</v>
-      </c>
-      <c r="D38">
-        <v>1.57</v>
-      </c>
-      <c r="E38">
-        <v>3.85</v>
-      </c>
-      <c r="F38">
-        <v>3.85</v>
-      </c>
-      <c r="G38">
-        <v>33385.599999999999</v>
-      </c>
-      <c r="H38">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39">
-        <v>2010</v>
-      </c>
-      <c r="D39">
-        <v>1.79</v>
-      </c>
-      <c r="E39">
-        <v>1.78</v>
-      </c>
-      <c r="F39">
-        <v>1.78</v>
-      </c>
-      <c r="G39">
-        <v>1149.3</v>
-      </c>
-      <c r="H39">
         <v>4.57</v>
       </c>
     </row>

--- a/project/DB/food-footprints.xlsx
+++ b/project/DB/food-footprints.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Entity</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>GHG emissions per kilogram (Poore &amp; Nemecek, 2018)</t>
@@ -951,15 +945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,826 +961,607 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.43</v>
+      </c>
+      <c r="C2">
+        <v>0.63</v>
+      </c>
+      <c r="D2">
+        <v>12948.6</v>
+      </c>
+      <c r="E2">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0.86</v>
+      </c>
+      <c r="C3">
+        <v>1.93</v>
+      </c>
+      <c r="D3">
+        <v>661.9</v>
+      </c>
+      <c r="E3">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>2010</v>
-      </c>
-      <c r="D2">
+      <c r="B4">
+        <v>1.18</v>
+      </c>
+      <c r="C4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>696.4</v>
+      </c>
+      <c r="E4">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>99.48</v>
+      </c>
+      <c r="C5">
+        <v>326.20999999999998</v>
+      </c>
+      <c r="D5">
+        <v>34732.5</v>
+      </c>
+      <c r="E5">
+        <v>301.41000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.53</v>
+      </c>
+      <c r="C6">
+        <v>2.41</v>
+      </c>
+      <c r="D6">
+        <v>21162.1</v>
+      </c>
+      <c r="E6">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.51</v>
+      </c>
+      <c r="C7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D7">
+        <v>8455.1</v>
+      </c>
+      <c r="E7">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.2</v>
+      </c>
+      <c r="C8">
+        <v>2.04</v>
+      </c>
+      <c r="D8">
+        <v>16438.599999999999</v>
+      </c>
+      <c r="E8">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1.32</v>
+      </c>
+      <c r="C9">
+        <v>1.81</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>23.88</v>
+      </c>
+      <c r="C10">
+        <v>87.79</v>
+      </c>
+      <c r="D10">
+        <v>180850.6</v>
+      </c>
+      <c r="E10">
+        <v>98.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>0.39</v>
+      </c>
+      <c r="C11">
+        <v>0.86</v>
+      </c>
+      <c r="D11">
+        <v>4662.7</v>
+      </c>
+      <c r="E11">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>28.53</v>
+      </c>
+      <c r="C12">
+        <v>21.62</v>
+      </c>
+      <c r="D12">
+        <v>337</v>
+      </c>
+      <c r="E12">
+        <v>110.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>46.65</v>
+      </c>
+      <c r="C13">
+        <v>68.959999999999994</v>
+      </c>
+      <c r="D13">
+        <v>2879.2</v>
+      </c>
+      <c r="E13">
+        <v>87.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>4.67</v>
+      </c>
+      <c r="C14">
+        <v>6.27</v>
+      </c>
+      <c r="D14">
+        <v>17982.7</v>
+      </c>
+      <c r="E14">
+        <v>21.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>13.63</v>
+      </c>
+      <c r="C15">
+        <v>8.41</v>
+      </c>
+      <c r="D15">
+        <v>41572.199999999997</v>
+      </c>
+      <c r="E15">
+        <v>235.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3.23</v>
+      </c>
+      <c r="C16">
+        <v>9.11</v>
+      </c>
+      <c r="D16">
+        <v>61797.9</v>
+      </c>
+      <c r="E16">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>39.72</v>
+      </c>
+      <c r="C17">
+        <v>369.81</v>
+      </c>
+      <c r="D17">
+        <v>141925</v>
+      </c>
+      <c r="E17">
+        <v>97.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1.7</v>
+      </c>
+      <c r="C18">
+        <v>2.94</v>
+      </c>
+      <c r="D18">
+        <v>10863.3</v>
+      </c>
+      <c r="E18">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>3.15</v>
+      </c>
+      <c r="C19">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D19">
+        <v>19786.3</v>
+      </c>
+      <c r="E19">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2.48</v>
+      </c>
+      <c r="C20">
+        <v>7.6</v>
+      </c>
+      <c r="D20">
+        <v>18786.2</v>
+      </c>
+      <c r="E20">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21">
+        <v>0.39</v>
+      </c>
+      <c r="D21">
+        <v>932</v>
+      </c>
+      <c r="E21">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.89</v>
+      </c>
+      <c r="D22">
+        <v>9533.1</v>
+      </c>
+      <c r="E22">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1.79</v>
+      </c>
+      <c r="C23">
+        <v>15.57</v>
+      </c>
+      <c r="D23">
+        <v>22477.4</v>
+      </c>
+      <c r="E23">
+        <v>17.079999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.53</v>
+      </c>
+      <c r="C24">
+        <v>0.38</v>
+      </c>
+      <c r="D24">
+        <v>4911.3999999999996</v>
+      </c>
+      <c r="E24">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0.98</v>
+      </c>
+      <c r="C25">
+        <v>7.46</v>
+      </c>
+      <c r="D25">
+        <v>27948.2</v>
+      </c>
+      <c r="E25">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>12.31</v>
+      </c>
+      <c r="C26">
+        <v>17.36</v>
+      </c>
+      <c r="D26">
+        <v>66867.399999999994</v>
+      </c>
+      <c r="E26">
+        <v>76.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.46</v>
+      </c>
+      <c r="C27">
+        <v>0.88</v>
+      </c>
+      <c r="D27">
+        <v>2754.2</v>
+      </c>
+      <c r="E27">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="C28">
+        <v>12.22</v>
+      </c>
+      <c r="D28">
+        <v>14177.9</v>
+      </c>
+      <c r="E28">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>26.87</v>
+      </c>
+      <c r="C29">
+        <v>2.97</v>
+      </c>
+      <c r="D29">
+        <v>127259</v>
+      </c>
+      <c r="E29">
+        <v>227.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>4.45</v>
+      </c>
+      <c r="C30">
+        <v>2.8</v>
+      </c>
+      <c r="D30">
+        <v>49576.3</v>
+      </c>
+      <c r="E30">
+        <v>35.07</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>0.43</v>
       </c>
-      <c r="E2">
-        <v>0.63</v>
-      </c>
-      <c r="F2">
-        <v>0.63</v>
-      </c>
-      <c r="G2">
-        <v>12948.6</v>
-      </c>
-      <c r="H2">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2010</v>
-      </c>
-      <c r="D3">
-        <v>0.86</v>
-      </c>
-      <c r="E3">
-        <v>1.93</v>
-      </c>
-      <c r="F3">
-        <v>1.93</v>
-      </c>
-      <c r="G3">
-        <v>661.9</v>
-      </c>
-      <c r="H3">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2010</v>
-      </c>
-      <c r="D4">
-        <v>1.18</v>
-      </c>
-      <c r="E4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="G4">
-        <v>696.4</v>
-      </c>
-      <c r="H4">
-        <v>2.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2010</v>
-      </c>
-      <c r="D5">
-        <v>99.48</v>
-      </c>
-      <c r="E5">
-        <v>326.20999999999998</v>
-      </c>
-      <c r="F5">
-        <v>326.20999999999998</v>
-      </c>
-      <c r="G5">
-        <v>34732.5</v>
-      </c>
-      <c r="H5">
-        <v>301.41000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>1.53</v>
-      </c>
-      <c r="E6">
-        <v>2.41</v>
-      </c>
-      <c r="F6">
-        <v>2.41</v>
-      </c>
-      <c r="G6">
-        <v>21162.1</v>
-      </c>
-      <c r="H6">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2010</v>
-      </c>
-      <c r="D7">
-        <v>0.51</v>
-      </c>
-      <c r="E7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7">
-        <v>8455.1</v>
-      </c>
-      <c r="H7">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>2010</v>
-      </c>
-      <c r="D8">
-        <v>3.2</v>
-      </c>
-      <c r="E8">
-        <v>2.04</v>
-      </c>
-      <c r="F8">
-        <v>2.04</v>
-      </c>
-      <c r="G8">
-        <v>16438.599999999999</v>
-      </c>
-      <c r="H8">
-        <v>16.920000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>2010</v>
-      </c>
-      <c r="D9">
-        <v>1.32</v>
-      </c>
-      <c r="E9">
-        <v>1.81</v>
-      </c>
-      <c r="F9">
-        <v>1.81</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>2010</v>
-      </c>
-      <c r="D10">
-        <v>23.88</v>
-      </c>
-      <c r="E10">
-        <v>87.79</v>
-      </c>
-      <c r="F10">
-        <v>87.79</v>
-      </c>
-      <c r="G10">
-        <v>180850.6</v>
-      </c>
-      <c r="H10">
-        <v>98.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>2010</v>
-      </c>
-      <c r="D11">
-        <v>0.39</v>
-      </c>
-      <c r="E11">
-        <v>0.86</v>
-      </c>
-      <c r="F11">
-        <v>0.86</v>
-      </c>
-      <c r="G11">
-        <v>4662.7</v>
-      </c>
-      <c r="H11">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>2010</v>
-      </c>
-      <c r="D12">
-        <v>28.53</v>
-      </c>
-      <c r="E12">
-        <v>21.62</v>
-      </c>
-      <c r="F12">
-        <v>21.62</v>
-      </c>
-      <c r="G12">
-        <v>337</v>
-      </c>
-      <c r="H12">
-        <v>110.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2010</v>
-      </c>
-      <c r="D13">
-        <v>46.65</v>
-      </c>
-      <c r="E13">
-        <v>68.959999999999994</v>
-      </c>
-      <c r="F13">
-        <v>68.959999999999994</v>
-      </c>
-      <c r="G13">
-        <v>2879.2</v>
-      </c>
-      <c r="H13">
-        <v>87.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2010</v>
-      </c>
-      <c r="D14">
-        <v>4.67</v>
-      </c>
-      <c r="E14">
-        <v>6.27</v>
-      </c>
-      <c r="F14">
-        <v>6.27</v>
-      </c>
-      <c r="G14">
-        <v>17982.7</v>
-      </c>
-      <c r="H14">
-        <v>21.76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2010</v>
-      </c>
-      <c r="D15">
-        <v>13.63</v>
-      </c>
-      <c r="E15">
-        <v>8.41</v>
-      </c>
-      <c r="F15">
-        <v>8.41</v>
-      </c>
-      <c r="G15">
-        <v>41572.199999999997</v>
-      </c>
-      <c r="H15">
-        <v>235.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2010</v>
-      </c>
-      <c r="D16">
-        <v>3.23</v>
-      </c>
-      <c r="E16">
-        <v>9.11</v>
-      </c>
-      <c r="F16">
-        <v>9.11</v>
-      </c>
-      <c r="G16">
-        <v>61797.9</v>
-      </c>
-      <c r="H16">
-        <v>14.14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>2010</v>
-      </c>
-      <c r="D17">
-        <v>39.72</v>
-      </c>
-      <c r="E17">
-        <v>369.81</v>
-      </c>
-      <c r="F17">
-        <v>369.81</v>
-      </c>
-      <c r="G17">
-        <v>141925</v>
-      </c>
-      <c r="H17">
-        <v>97.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>2010</v>
-      </c>
-      <c r="D18">
-        <v>1.7</v>
-      </c>
-      <c r="E18">
-        <v>2.94</v>
-      </c>
-      <c r="F18">
-        <v>2.94</v>
-      </c>
-      <c r="G18">
-        <v>10863.3</v>
-      </c>
-      <c r="H18">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>2010</v>
-      </c>
-      <c r="D19">
-        <v>3.15</v>
-      </c>
-      <c r="E19">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F19">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="G19">
-        <v>19786.3</v>
-      </c>
-      <c r="H19">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>2010</v>
-      </c>
-      <c r="D20">
-        <v>2.48</v>
-      </c>
-      <c r="E20">
-        <v>7.6</v>
-      </c>
-      <c r="F20">
-        <v>7.6</v>
-      </c>
-      <c r="G20">
-        <v>18786.2</v>
-      </c>
-      <c r="H20">
-        <v>11.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>2010</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-      <c r="E21">
-        <v>0.39</v>
-      </c>
-      <c r="F21">
-        <v>0.39</v>
-      </c>
-      <c r="G21">
-        <v>932</v>
-      </c>
-      <c r="H21">
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>2010</v>
-      </c>
-      <c r="D22">
-        <v>1.05</v>
-      </c>
-      <c r="E22">
-        <v>0.89</v>
-      </c>
-      <c r="F22">
-        <v>0.89</v>
-      </c>
-      <c r="G22">
-        <v>9533.1</v>
-      </c>
-      <c r="H22">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23">
-        <v>2010</v>
-      </c>
-      <c r="D23">
+      <c r="C31">
+        <v>0.33</v>
+      </c>
+      <c r="D31">
+        <v>929.2</v>
+      </c>
+      <c r="E31">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0.98</v>
+      </c>
+      <c r="C32">
+        <v>0.66</v>
+      </c>
+      <c r="D32">
+        <v>955.6</v>
+      </c>
+      <c r="E32">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>3.16</v>
+      </c>
+      <c r="C33">
+        <v>3.52</v>
+      </c>
+      <c r="D33">
+        <v>5113.2</v>
+      </c>
+      <c r="E33">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>2.09</v>
+      </c>
+      <c r="C34">
+        <v>0.8</v>
+      </c>
+      <c r="D34">
+        <v>5335.7</v>
+      </c>
+      <c r="E34">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>1.57</v>
+      </c>
+      <c r="C35">
+        <v>3.85</v>
+      </c>
+      <c r="D35">
+        <v>33385.599999999999</v>
+      </c>
+      <c r="E35">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>1.79</v>
       </c>
-      <c r="E23">
-        <v>15.57</v>
-      </c>
-      <c r="F23">
-        <v>15.57</v>
-      </c>
-      <c r="G23">
-        <v>22477.4</v>
-      </c>
-      <c r="H23">
-        <v>17.079999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>2010</v>
-      </c>
-      <c r="D24">
-        <v>0.53</v>
-      </c>
-      <c r="E24">
-        <v>0.38</v>
-      </c>
-      <c r="F24">
-        <v>0.38</v>
-      </c>
-      <c r="G24">
-        <v>4911.3999999999996</v>
-      </c>
-      <c r="H24">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>2010</v>
-      </c>
-      <c r="D25">
-        <v>0.98</v>
-      </c>
-      <c r="E25">
-        <v>7.46</v>
-      </c>
-      <c r="F25">
-        <v>7.46</v>
-      </c>
-      <c r="G25">
-        <v>27948.2</v>
-      </c>
-      <c r="H25">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26">
-        <v>2010</v>
-      </c>
-      <c r="D26">
-        <v>12.31</v>
-      </c>
-      <c r="E26">
-        <v>17.36</v>
-      </c>
-      <c r="F26">
-        <v>17.36</v>
-      </c>
-      <c r="G26">
-        <v>66867.399999999994</v>
-      </c>
-      <c r="H26">
-        <v>76.38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>2010</v>
-      </c>
-      <c r="D27">
-        <v>0.46</v>
-      </c>
-      <c r="E27">
-        <v>0.88</v>
-      </c>
-      <c r="F27">
-        <v>0.88</v>
-      </c>
-      <c r="G27">
-        <v>2754.2</v>
-      </c>
-      <c r="H27">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
-        <v>2010</v>
-      </c>
-      <c r="D28">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="E28">
-        <v>12.22</v>
-      </c>
-      <c r="F28">
-        <v>12.22</v>
-      </c>
-      <c r="G28">
-        <v>14177.9</v>
-      </c>
-      <c r="H28">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29">
-        <v>2010</v>
-      </c>
-      <c r="D29">
-        <v>26.87</v>
-      </c>
-      <c r="E29">
-        <v>2.97</v>
-      </c>
-      <c r="F29">
-        <v>2.97</v>
-      </c>
-      <c r="G29">
-        <v>127259</v>
-      </c>
-      <c r="H29">
-        <v>227.22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>2010</v>
-      </c>
-      <c r="D30">
-        <v>4.45</v>
-      </c>
-      <c r="E30">
-        <v>2.8</v>
-      </c>
-      <c r="F30">
-        <v>2.8</v>
-      </c>
-      <c r="G30">
-        <v>49576.3</v>
-      </c>
-      <c r="H30">
-        <v>35.07</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31">
-        <v>2010</v>
-      </c>
-      <c r="D31">
-        <v>0.43</v>
-      </c>
-      <c r="E31">
-        <v>0.33</v>
-      </c>
-      <c r="F31">
-        <v>0.33</v>
-      </c>
-      <c r="G31">
-        <v>929.2</v>
-      </c>
-      <c r="H31">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>2010</v>
-      </c>
-      <c r="D32">
-        <v>0.98</v>
-      </c>
-      <c r="E32">
-        <v>0.66</v>
-      </c>
-      <c r="F32">
-        <v>0.66</v>
-      </c>
-      <c r="G32">
-        <v>955.6</v>
-      </c>
-      <c r="H32">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33">
-        <v>2010</v>
-      </c>
-      <c r="D33">
-        <v>3.16</v>
-      </c>
-      <c r="E33">
-        <v>3.52</v>
-      </c>
-      <c r="F33">
-        <v>3.52</v>
-      </c>
-      <c r="G33">
-        <v>5113.2</v>
-      </c>
-      <c r="H33">
-        <v>6.16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>2010</v>
-      </c>
-      <c r="D34">
-        <v>2.09</v>
-      </c>
-      <c r="E34">
-        <v>0.8</v>
-      </c>
-      <c r="F34">
-        <v>0.8</v>
-      </c>
-      <c r="G34">
-        <v>5335.7</v>
-      </c>
-      <c r="H34">
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>2010</v>
-      </c>
-      <c r="D35">
-        <v>1.57</v>
-      </c>
-      <c r="E35">
-        <v>3.85</v>
-      </c>
-      <c r="F35">
-        <v>3.85</v>
-      </c>
-      <c r="G35">
-        <v>33385.599999999999</v>
-      </c>
-      <c r="H35">
-        <v>7.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
       <c r="C36">
-        <v>2010</v>
+        <v>1.78</v>
       </c>
       <c r="D36">
-        <v>1.79</v>
+        <v>1149.3</v>
       </c>
       <c r="E36">
-        <v>1.78</v>
-      </c>
-      <c r="F36">
-        <v>1.78</v>
-      </c>
-      <c r="G36">
-        <v>1149.3</v>
-      </c>
-      <c r="H36">
         <v>4.57</v>
       </c>
     </row>
